--- a/population_data/2007_population.xlsx
+++ b/population_data/2007_population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Documents\Uni Heidelberg\4. Semester\Bioinformatik\github\topic04_team01\population_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C66800-89C7-4E8E-BDB8-31CE72DF1DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838139E7-5978-4F90-A1D8-F6388D946A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9518939-CF3A-486D-A08D-17E79C7D5ADA}"/>
   </bookViews>
@@ -956,7 +956,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1275,7 +1275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58702B51-206E-4925-A6E9-2FA02DE84234}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
